--- a/biology/Médecine/Gélule/Gélule.xlsx
+++ b/biology/Médecine/Gélule/Gélule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lule</t>
+          <t>Gélule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une gélule, ou capsule à enveloppe dure, désigne une forme galénique de médicament, solide, que l'on avale par voie orale. Elle est constituée d'une enveloppe dure, creuse qui contient la substance active.
 La gélule est constituée de deux parties, la tête et le corps, cylindriques, ouvertes à une extrémité et dont le fond est hémisphérique, s'emboîtant l'une dans l'autre.
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lule</t>
+          <t>Gélule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,6 +532,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
